--- a/DateBase/orders/name001_2025-5-23.xlsx
+++ b/DateBase/orders/name001_2025-5-23.xlsx
@@ -480,6 +480,9 @@
       <c r="C6" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F6" t="str">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -541,7 +544,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01231312123120</v>
+        <v>0123131212312123</v>
       </c>
     </row>
   </sheetData>
